--- a/FMO/data.xlsx
+++ b/FMO/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0_notebook\Study\BioInformaticsNote\FMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengda/Documents/GithubRep/BioInformaticsNote/FMO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCAEBA6-26B6-4C74-913C-03C329010A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA01A74F-F735-5041-9617-1BEB8BE2C8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{62162650-271C-CA48-A747-C921BDC40E0D}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="21120" xr2:uid="{62162650-271C-CA48-A747-C921BDC40E0D}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -516,9 +516,6 @@
     <t>indigo: 300</t>
   </si>
   <si>
-    <t>10 mM indigo</t>
-  </si>
-  <si>
     <t>directed evolution, site-directed mutants, MISO (multichange isothermal mutagenesis) mutant</t>
   </si>
   <si>
@@ -595,9 +592,6 @@
   </si>
   <si>
     <t>origin, MBP-cFMO</t>
-  </si>
-  <si>
-    <t>First clone cFMO, maltosebinding protein (MBP) to purify the enzyme</t>
   </si>
   <si>
     <t>indigo: 685, indirubin: 103 (anticipate a higher production of indirubin through high-cell density in a 5 L fermentor)</t>
@@ -675,7 +669,7 @@
         <b/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -693,7 +687,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -708,7 +702,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -723,7 +717,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -747,7 +741,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -762,7 +756,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -777,7 +771,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -792,7 +786,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -807,7 +801,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,7 +817,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -833,7 +827,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -849,7 +843,7 @@
         <i/>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -859,7 +853,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -895,7 +889,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -920,7 +914,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -935,17 +929,23 @@
   <si>
     <t xml:space="preserve">indican:2900 / indigo: 1400 (two indoxyl molecules are required to make one indigo molecule) </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 mM indole</t>
+  </si>
+  <si>
+    <t>First clone cFMO, maltose-binding protein (MBP) to purify the enzyme</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -953,13 +953,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -967,28 +967,28 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF231E1E"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF212121"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1006,18 +1006,12 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1032,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,29 +1037,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1073,51 +1046,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1133,7 +1112,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1431,1202 +1410,1206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468C4A23-D811-C640-901F-AA22E07F1126}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.15234375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.3046875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.84375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="49.69140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="16.69140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.84375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.3046875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.3828125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.69140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="27.3828125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="34.69140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="27.15234375" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="10.84375" style="3"/>
+    <col min="8" max="8" width="11.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="34.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="27.1640625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="33">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="37" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>110</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>48</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>24</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>6</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="H13" s="4">
+        <v>400</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>24</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <v>84</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>12</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>48</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="4">
+        <v>48</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="M21" s="11"/>
+    </row>
+    <row r="22" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>24</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="12" t="s">
+    </row>
+    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
+        <v>48</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9">
-        <v>12</v>
-      </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="21"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="31">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9">
-        <v>24</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="46.5">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9">
-        <v>20</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18.5">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9">
-        <v>110</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="46.5">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="31">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <v>48</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="46.5">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9">
-        <v>24</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="31">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="25" t="s">
-        <v>200</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9">
-        <v>6</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="H13" s="9">
-        <v>400</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="31">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <v>24</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="M14" s="18"/>
-    </row>
-    <row r="15" spans="1:13" ht="46.5">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9">
-        <v>84</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="31">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9">
-        <v>12</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="46.5">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9">
-        <v>48</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="31">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="9"/>
-      <c r="E20" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18.5">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" s="9">
-        <v>48</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="M21" s="22"/>
-    </row>
-    <row r="22" spans="1:13" ht="46.5">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9">
-        <v>24</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="31">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="31">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="46.5">
-      <c r="A25" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9">
-        <v>48</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10" t="s">
+      <c r="D26" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="31">
-      <c r="A26" s="23"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9">
-        <v>48</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="31">
+    <row r="27" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4">
         <v>24</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="K28" s="10" t="s">
+      <c r="J28" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="M28" s="10" t="s">
+      <c r="L28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="M28" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-    </row>
-    <row r="30" spans="1:13" ht="31">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9" t="s">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17" customHeight="1">
+    <row r="31" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="10" t="s">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="46.5">
+    <row r="33" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="F33" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9" t="s">
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M33" s="10" t="s">
+      <c r="M33" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="46.5">
+    <row r="34" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="6" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="10" t="s">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
+        <v>300</v>
+      </c>
+      <c r="I35" s="4">
+        <v>8</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9">
-        <v>300</v>
-      </c>
-      <c r="I35" s="9">
-        <v>8</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="14" t="s">
+      <c r="B38" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4">
+        <v>24</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4">
+        <v>24</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="16" t="s">
+      <c r="B40" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4">
+        <v>2.137</v>
+      </c>
+      <c r="H40" s="4">
+        <v>5.4290000000000003</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9">
-        <v>24</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K38" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="31">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9">
-        <v>24</v>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9">
-        <v>2.137</v>
-      </c>
-      <c r="H40" s="9">
-        <v>5.4290000000000003</v>
-      </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="19"/>
+      <c r="E41" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9" t="s">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M41" s="7" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A29:M29"/>
     <mergeCell ref="A2:A24"/>
     <mergeCell ref="B2:B24"/>
     <mergeCell ref="M20:M21"/>
@@ -2634,11 +2617,6 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="M13:M15"/>
     <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A29:M29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
